--- a/Election_Vulnerability_Index_downloadable_data 1.28.22.xlsx
+++ b/Election_Vulnerability_Index_downloadable_data 1.28.22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freedomhousedc.sharepoint.com/sites/ResearchTeam/Shared Documents/Technology and Democracy/GEW/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\cs418-spring22-eda-llc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{364D519C-EB72-474D-AE30-77DC12C2DD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525CBEB4-6542-4F20-9222-39FB8FE076EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3019,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8796,6 +8796,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EDAE4BACD1F4F449AF1E45E0F4042A8E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7025efbf0a05af53609db1353962f40d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aedc87c9-fa16-4ea4-92d3-41d4e2157c0b" xmlns:ns3="3d854844-489d-4a5d-b4ab-ea994fd25330" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c88015a55e00dacc29577645bbbef98b" ns2:_="" ns3:_="">
     <xsd:import namespace="aedc87c9-fa16-4ea4-92d3-41d4e2157c0b"/>
@@ -9018,15 +9027,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9034,6 +9034,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987ED1B2-5FB4-440E-861C-07907439CE37}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CCBAAFA-64F9-4EAE-8623-82D651278DA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9052,14 +9060,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987ED1B2-5FB4-440E-861C-07907439CE37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63314BE7-ECDE-4F85-B857-0EB1200CBC7A}">
   <ds:schemaRefs>
